--- a/testing/Testing_Sprint-I.xlsx
+++ b/testing/Testing_Sprint-I.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\Testing_Proyecto-Integrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5FA332-D6E9-4D78-8BC3-AB60D55D2ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13831CB-3BA3-42CB-827C-3A009AD75A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de prueba" sheetId="1" r:id="rId1"/>
@@ -831,35 +831,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -871,8 +868,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2463,8 +2463,8 @@
   </sheetPr>
   <dimension ref="A2:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="J76" sqref="J76:J80"/>
+    <sheetView topLeftCell="A71" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81:C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2513,22 +2513,22 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="26" t="s">
+      <c r="C3" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -2537,8 +2537,8 @@
       <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -2557,82 +2557,82 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:26" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="20" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -2641,8 +2641,8 @@
       <c r="H8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -2661,82 +2661,82 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
     </row>
     <row r="10" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:26" ht="209.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
     </row>
     <row r="13" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="16" t="s">
+      <c r="C13" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -2745,42 +2745,42 @@
       <c r="H13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:26" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="3" t="s">
         <v>38</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="16" t="s">
+      <c r="C15" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="21" t="s">
         <v>44</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -2789,42 +2789,42 @@
       <c r="H15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:26" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="3" t="s">
         <v>38</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="16" t="s">
+      <c r="C17" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -2834,15 +2834,15 @@
         <v>16</v>
       </c>
       <c r="I17" s="9"/>
-      <c r="J17" s="25"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="239.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="3" t="s">
         <v>64</v>
       </c>
@@ -2850,25 +2850,25 @@
         <v>65</v>
       </c>
       <c r="I18" s="9"/>
-      <c r="J18" s="25"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="16" t="s">
+      <c r="C19" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -2877,274 +2877,274 @@
       <c r="H19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="25"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="4" t="s">
         <v>70</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="25"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="21" t="s">
         <v>50</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="25"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="21" t="s">
         <v>50</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H24" s="3"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="25"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="25" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="25"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="18"/>
     </row>
     <row r="26" spans="1:10" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="25"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="18"/>
     </row>
     <row r="27" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="21" t="s">
         <v>50</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="25"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="25"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="24"/>
-      <c r="J29" s="25"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="18"/>
     </row>
     <row r="30" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="21" t="s">
         <v>50</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H30" s="3"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="25"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="18"/>
     </row>
     <row r="31" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="3" t="s">
         <v>74</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I31" s="24"/>
-      <c r="J31" s="25"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="18"/>
     </row>
     <row r="32" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="24"/>
-      <c r="J32" s="25"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="16" t="s">
+      <c r="C33" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="3" t="s">
@@ -3153,42 +3153,42 @@
       <c r="H33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="18"/>
-      <c r="J33" s="25"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:10" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="16"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="3" t="s">
         <v>77</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I34" s="18"/>
-      <c r="J34" s="25"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="18"/>
     </row>
     <row r="35" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="16" t="s">
+      <c r="C35" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="3" t="s">
@@ -3197,42 +3197,42 @@
       <c r="H35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="18"/>
-      <c r="J35" s="25"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" ht="216" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="16"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
       <c r="G36" s="3" t="s">
         <v>176</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="25"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="18"/>
     </row>
     <row r="37" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="16" t="s">
+      <c r="C37" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="16" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="3" t="s">
@@ -3241,42 +3241,42 @@
       <c r="H37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="18"/>
-      <c r="J37" s="25"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="18"/>
     </row>
     <row r="38" spans="1:10" ht="285" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="16"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="3" t="s">
         <v>89</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I38" s="18"/>
-      <c r="J38" s="25"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="19" t="s">
+      <c r="C39" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="16" t="s">
         <v>15</v>
       </c>
       <c r="G39" s="3" t="s">
@@ -3285,42 +3285,42 @@
       <c r="H39" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="18"/>
-      <c r="J39" s="25"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="18"/>
     </row>
     <row r="40" spans="1:10" ht="274.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="19"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="16"/>
       <c r="G40" s="10" t="s">
         <v>102</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="I40" s="18"/>
-      <c r="J40" s="25"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="18"/>
     </row>
     <row r="41" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="19" t="s">
+      <c r="C41" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D41" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="16" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="3" t="s">
@@ -3329,58 +3329,58 @@
       <c r="H41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="18"/>
-      <c r="J41" s="25"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="18"/>
     </row>
     <row r="42" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="19"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="16"/>
       <c r="G42" s="10" t="s">
         <v>116</v>
       </c>
       <c r="H42" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="I42" s="18"/>
-      <c r="J42" s="25"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="18"/>
     </row>
     <row r="43" spans="1:10" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="19"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="16"/>
       <c r="G43" s="10" t="s">
         <v>109</v>
       </c>
       <c r="H43" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="I43" s="18"/>
-      <c r="J43" s="25"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="18"/>
     </row>
     <row r="44" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="19" t="s">
+      <c r="C44" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="F44" s="16" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="3" t="s">
@@ -3389,58 +3389,58 @@
       <c r="H44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="18"/>
-      <c r="J44" s="25"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="18"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="19"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="16"/>
       <c r="G45" s="10" t="s">
         <v>115</v>
       </c>
       <c r="H45" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="I45" s="18"/>
-      <c r="J45" s="25"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="18"/>
     </row>
     <row r="46" spans="1:10" ht="316.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="19"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="16"/>
       <c r="G46" s="10" t="s">
         <v>114</v>
       </c>
       <c r="H46" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="I46" s="18"/>
-      <c r="J46" s="25"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="18"/>
     </row>
     <row r="47" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="F47" s="16" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="3" t="s">
@@ -3449,138 +3449,138 @@
       <c r="H47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="19"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="16"/>
       <c r="G48" s="10" t="s">
         <v>116</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
     </row>
     <row r="49" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="19"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="16"/>
       <c r="G49" s="6" t="s">
         <v>122</v>
       </c>
       <c r="H49" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
     </row>
     <row r="50" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="19"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="16"/>
       <c r="G50" s="6" t="s">
         <v>124</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
     </row>
     <row r="51" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="19"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="16"/>
       <c r="G51" s="6" t="s">
         <v>127</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
     </row>
     <row r="52" spans="1:10" ht="64.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="19"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="16"/>
       <c r="G52" s="6" t="s">
         <v>128</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
     </row>
     <row r="53" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="19"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="16"/>
       <c r="G53" s="6" t="s">
         <v>129</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
     </row>
     <row r="54" spans="1:10" ht="172.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="19"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="16"/>
       <c r="G54" s="6" t="s">
         <v>130</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
     </row>
     <row r="55" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="E55" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G55" s="3" t="s">
@@ -3589,138 +3589,138 @@
       <c r="H55" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
     </row>
     <row r="56" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="16"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="22"/>
       <c r="G56" s="10" t="s">
         <v>116</v>
       </c>
       <c r="H56" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
     </row>
     <row r="57" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="16"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="22"/>
       <c r="G57" s="6" t="s">
         <v>135</v>
       </c>
       <c r="H57" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
     </row>
     <row r="58" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="16"/>
+      <c r="A58" s="22"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="22"/>
       <c r="G58" s="6" t="s">
         <v>124</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
     </row>
     <row r="59" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="16"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="22"/>
       <c r="G59" s="6" t="s">
         <v>127</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
     </row>
     <row r="60" spans="1:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="16"/>
+      <c r="A60" s="22"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="22"/>
       <c r="G60" s="6" t="s">
         <v>128</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
     </row>
     <row r="61" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="16"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="22"/>
       <c r="G61" s="6" t="s">
         <v>129</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
     </row>
     <row r="62" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="16"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="22"/>
       <c r="G62" s="6" t="s">
         <v>130</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
     </row>
     <row r="63" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E63" s="17" t="s">
+      <c r="E63" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F63" s="16" t="s">
+      <c r="F63" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="3" t="s">
@@ -3729,138 +3729,138 @@
       <c r="H63" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
     </row>
     <row r="64" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="16"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="22"/>
       <c r="G64" s="10" t="s">
         <v>116</v>
       </c>
       <c r="H64" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
     </row>
     <row r="65" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="16"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="22"/>
       <c r="G65" s="6" t="s">
         <v>122</v>
       </c>
       <c r="H65" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
     </row>
     <row r="66" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="16"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="22"/>
       <c r="G66" s="6" t="s">
         <v>124</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
     </row>
     <row r="67" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="16"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="22"/>
       <c r="G67" s="6" t="s">
         <v>127</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
     </row>
     <row r="68" spans="1:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="A68" s="16"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="16"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="22"/>
       <c r="G68" s="6" t="s">
         <v>128</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
     </row>
     <row r="69" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A69" s="16"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="16"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="22"/>
       <c r="G69" s="6" t="s">
         <v>138</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
     </row>
     <row r="70" spans="1:10" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="16"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="22"/>
       <c r="G70" s="6" t="s">
         <v>130</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
     </row>
     <row r="71" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E71" s="17" t="s">
+      <c r="E71" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F71" s="16" t="s">
+      <c r="F71" s="22" t="s">
         <v>146</v>
       </c>
       <c r="G71" s="6" t="s">
@@ -3869,90 +3869,90 @@
       <c r="H71" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="16"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="16"/>
+      <c r="A72" s="22"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="22"/>
       <c r="G72" s="10" t="s">
         <v>115</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
     </row>
     <row r="73" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A73" s="16"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="16"/>
+      <c r="A73" s="22"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="22"/>
       <c r="G73" s="6" t="s">
         <v>148</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
     </row>
     <row r="74" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A74" s="16"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="16"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="22"/>
       <c r="G74" s="6" t="s">
         <v>149</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
     </row>
     <row r="75" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="16"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="16"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="22"/>
       <c r="G75" s="6" t="s">
         <v>151</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
     </row>
     <row r="76" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D76" s="16" t="s">
+      <c r="D76" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E76" s="17" t="s">
+      <c r="E76" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="F76" s="16" t="s">
+      <c r="F76" s="22" t="s">
         <v>146</v>
       </c>
       <c r="G76" s="6" t="s">
@@ -3961,90 +3961,90 @@
       <c r="H76" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
     </row>
     <row r="77" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="16"/>
+      <c r="A77" s="22"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="22"/>
       <c r="G77" s="10" t="s">
         <v>115</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
     </row>
     <row r="78" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="16"/>
+      <c r="A78" s="22"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="22"/>
       <c r="G78" s="6" t="s">
         <v>156</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="16"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="16"/>
+      <c r="A79" s="22"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="22"/>
       <c r="G79" s="6" t="s">
         <v>149</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
     </row>
     <row r="80" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A80" s="16"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="16"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="22"/>
       <c r="G80" s="6" t="s">
         <v>151</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
     </row>
     <row r="81" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="B81" s="17" t="s">
+      <c r="B81" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C81" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="D81" s="16" t="s">
+      <c r="D81" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E81" s="17" t="s">
+      <c r="E81" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="F81" s="16" t="s">
+      <c r="F81" s="22" t="s">
         <v>146</v>
       </c>
       <c r="G81" s="6" t="s">
@@ -4053,76 +4053,227 @@
       <c r="H81" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="16"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="16"/>
+      <c r="A82" s="22"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="22"/>
       <c r="G82" s="10" t="s">
         <v>115</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
     </row>
     <row r="83" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="16"/>
+      <c r="A83" s="22"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="22"/>
       <c r="G83" s="6" t="s">
         <v>156</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
     </row>
     <row r="84" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="16"/>
+      <c r="A84" s="22"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="22"/>
       <c r="G84" s="6" t="s">
         <v>160</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="16"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="16"/>
+      <c r="A85" s="22"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="22"/>
       <c r="G85" s="6" t="s">
         <v>151</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:J85" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="175">
+    <mergeCell ref="F76:F80"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="D76:D80"/>
+    <mergeCell ref="E76:E80"/>
+    <mergeCell ref="I76:I80"/>
+    <mergeCell ref="J76:J80"/>
+    <mergeCell ref="F81:F85"/>
+    <mergeCell ref="E81:E85"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="I81:I85"/>
+    <mergeCell ref="J81:J85"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="C71:C75"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="E71:E75"/>
+    <mergeCell ref="F71:F75"/>
+    <mergeCell ref="I63:I70"/>
+    <mergeCell ref="J63:J70"/>
+    <mergeCell ref="I71:I75"/>
+    <mergeCell ref="J71:J75"/>
+    <mergeCell ref="A55:A62"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="C55:C62"/>
+    <mergeCell ref="D55:D62"/>
+    <mergeCell ref="E55:E62"/>
+    <mergeCell ref="F55:F62"/>
+    <mergeCell ref="I55:I62"/>
+    <mergeCell ref="J55:J62"/>
+    <mergeCell ref="A63:A70"/>
+    <mergeCell ref="B63:B70"/>
+    <mergeCell ref="C63:C70"/>
+    <mergeCell ref="D63:D70"/>
+    <mergeCell ref="E63:E70"/>
+    <mergeCell ref="F63:F70"/>
+    <mergeCell ref="I47:I54"/>
+    <mergeCell ref="J47:J54"/>
+    <mergeCell ref="F47:F54"/>
+    <mergeCell ref="E47:E54"/>
+    <mergeCell ref="D47:D54"/>
+    <mergeCell ref="C47:C54"/>
+    <mergeCell ref="B47:B54"/>
+    <mergeCell ref="A47:A54"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="I37:I38"/>
     <mergeCell ref="C44:C46"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="A44:A46"/>
@@ -4147,157 +4298,6 @@
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="E39:E40"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="I47:I54"/>
-    <mergeCell ref="J47:J54"/>
-    <mergeCell ref="F47:F54"/>
-    <mergeCell ref="E47:E54"/>
-    <mergeCell ref="D47:D54"/>
-    <mergeCell ref="C47:C54"/>
-    <mergeCell ref="B47:B54"/>
-    <mergeCell ref="A47:A54"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A55:A62"/>
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="C55:C62"/>
-    <mergeCell ref="D55:D62"/>
-    <mergeCell ref="E55:E62"/>
-    <mergeCell ref="F55:F62"/>
-    <mergeCell ref="I55:I62"/>
-    <mergeCell ref="J55:J62"/>
-    <mergeCell ref="A63:A70"/>
-    <mergeCell ref="B63:B70"/>
-    <mergeCell ref="C63:C70"/>
-    <mergeCell ref="D63:D70"/>
-    <mergeCell ref="E63:E70"/>
-    <mergeCell ref="F63:F70"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="C71:C75"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="E71:E75"/>
-    <mergeCell ref="F71:F75"/>
-    <mergeCell ref="I63:I70"/>
-    <mergeCell ref="J63:J70"/>
-    <mergeCell ref="I71:I75"/>
-    <mergeCell ref="J71:J75"/>
-    <mergeCell ref="F76:F80"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="D76:D80"/>
-    <mergeCell ref="E76:E80"/>
-    <mergeCell ref="I76:I80"/>
-    <mergeCell ref="J76:J80"/>
-    <mergeCell ref="F81:F85"/>
-    <mergeCell ref="E81:E85"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="I81:I85"/>
-    <mergeCell ref="J81:J85"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J3 J8 J13 J15 J21 J24 J27 J30 J19 J33 J35 J37 J41 J17 J39 J44" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -4316,8 +4316,8 @@
   </sheetPr>
   <dimension ref="A2:Z53"/>
   <sheetViews>
-    <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C7"/>
+    <sheetView topLeftCell="A47" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4366,22 +4366,22 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="26" t="s">
+      <c r="C3" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -4390,10 +4390,10 @@
       <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="25" t="s">
         <v>173</v>
       </c>
       <c r="K3" s="2"/>
@@ -4414,12 +4414,12 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
@@ -4428,12 +4428,12 @@
       <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
@@ -4442,12 +4442,12 @@
       <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="3" t="s">
         <v>36</v>
       </c>
@@ -4458,12 +4458,12 @@
       <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:26" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="3" t="s">
         <v>20</v>
       </c>
@@ -4474,22 +4474,22 @@
       <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="20" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -4498,10 +4498,10 @@
       <c r="H8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="25" t="s">
         <v>173</v>
       </c>
       <c r="K8" s="2"/>
@@ -4522,40 +4522,40 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="31"/>
-      <c r="J9" s="26"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="26"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="3" t="s">
         <v>36</v>
       </c>
@@ -4563,15 +4563,15 @@
         <v>19</v>
       </c>
       <c r="I11" s="31"/>
-      <c r="J11" s="26"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:26" ht="209.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="3" t="s">
         <v>31</v>
       </c>
@@ -4579,25 +4579,25 @@
         <v>39</v>
       </c>
       <c r="I12" s="31"/>
-      <c r="J12" s="26"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="16" t="s">
+      <c r="C13" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -4609,17 +4609,17 @@
       <c r="I13" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="3" t="s">
         <v>38</v>
       </c>
@@ -4627,25 +4627,25 @@
         <v>41</v>
       </c>
       <c r="I14" s="32"/>
-      <c r="J14" s="26"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="16" t="s">
+      <c r="C15" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="21" t="s">
         <v>44</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -4657,17 +4657,17 @@
       <c r="I15" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="3" t="s">
         <v>38</v>
       </c>
@@ -4675,25 +4675,25 @@
         <v>41</v>
       </c>
       <c r="I16" s="32"/>
-      <c r="J16" s="26"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="16" t="s">
+      <c r="C17" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -4703,17 +4703,17 @@
         <v>16</v>
       </c>
       <c r="I17" s="32"/>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="239.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="3" t="s">
         <v>64</v>
       </c>
@@ -4721,25 +4721,25 @@
         <v>65</v>
       </c>
       <c r="I18" s="32"/>
-      <c r="J18" s="26"/>
+      <c r="J18" s="25"/>
     </row>
     <row r="19" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="16" t="s">
+      <c r="C19" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -4751,17 +4751,17 @@
       <c r="I19" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="4" t="s">
         <v>70</v>
       </c>
@@ -4769,25 +4769,25 @@
         <v>71</v>
       </c>
       <c r="I20" s="33"/>
-      <c r="J20" s="26"/>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="21" t="s">
         <v>50</v>
       </c>
       <c r="G21" s="3" t="s">
@@ -4797,17 +4797,17 @@
       <c r="I21" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="3" t="s">
         <v>46</v>
       </c>
@@ -4815,15 +4815,15 @@
         <v>47</v>
       </c>
       <c r="I22" s="32"/>
-      <c r="J22" s="26"/>
+      <c r="J22" s="25"/>
     </row>
     <row r="23" spans="1:10" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="3" t="s">
         <v>48</v>
       </c>
@@ -4831,25 +4831,25 @@
         <v>51</v>
       </c>
       <c r="I23" s="32"/>
-      <c r="J23" s="26"/>
+      <c r="J23" s="25"/>
     </row>
     <row r="24" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="21" t="s">
         <v>50</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -4859,17 +4859,17 @@
       <c r="I24" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="J24" s="26" t="s">
+      <c r="J24" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="3" t="s">
         <v>52</v>
       </c>
@@ -4877,15 +4877,15 @@
         <v>53</v>
       </c>
       <c r="I25" s="32"/>
-      <c r="J25" s="26"/>
+      <c r="J25" s="25"/>
     </row>
     <row r="26" spans="1:10" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="3" t="s">
         <v>54</v>
       </c>
@@ -4893,25 +4893,25 @@
         <v>51</v>
       </c>
       <c r="I26" s="32"/>
-      <c r="J26" s="26"/>
+      <c r="J26" s="25"/>
     </row>
     <row r="27" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="16" t="s">
+      <c r="C27" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -4923,17 +4923,17 @@
       <c r="I27" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="J27" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="16"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
       <c r="G28" s="3" t="s">
         <v>77</v>
       </c>
@@ -4941,25 +4941,25 @@
         <v>175</v>
       </c>
       <c r="I28" s="31"/>
-      <c r="J28" s="26"/>
+      <c r="J28" s="25"/>
     </row>
     <row r="29" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="16" t="s">
+      <c r="C29" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="3" t="s">
@@ -4971,17 +4971,17 @@
       <c r="I29" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="J29" s="26" t="s">
+      <c r="J29" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="216" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="16"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22"/>
       <c r="G30" s="3" t="s">
         <v>176</v>
       </c>
@@ -4989,25 +4989,25 @@
         <v>83</v>
       </c>
       <c r="I30" s="31"/>
-      <c r="J30" s="26"/>
+      <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="16" t="s">
+      <c r="C31" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="16" t="s">
         <v>15</v>
       </c>
       <c r="G31" s="3" t="s">
@@ -5019,17 +5019,17 @@
       <c r="I31" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="J31" s="26" t="s">
+      <c r="J31" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="285" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="16"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="22"/>
       <c r="G32" s="3" t="s">
         <v>89</v>
       </c>
@@ -5037,25 +5037,25 @@
         <v>90</v>
       </c>
       <c r="I32" s="31"/>
-      <c r="J32" s="26"/>
+      <c r="J32" s="25"/>
     </row>
     <row r="33" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="19" t="s">
+      <c r="C33" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="16" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="3" t="s">
@@ -5067,17 +5067,17 @@
       <c r="I33" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="J33" s="26" t="s">
+      <c r="J33" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="274.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="19"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="16"/>
       <c r="G34" s="10" t="s">
         <v>102</v>
       </c>
@@ -5085,25 +5085,25 @@
         <v>110</v>
       </c>
       <c r="I34" s="31"/>
-      <c r="J34" s="26"/>
+      <c r="J34" s="25"/>
     </row>
     <row r="35" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="19" t="s">
+      <c r="C35" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="16" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="3" t="s">
@@ -5115,17 +5115,17 @@
       <c r="I35" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="J35" s="26" t="s">
+      <c r="J35" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="19"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="16"/>
       <c r="G36" s="10" t="s">
         <v>116</v>
       </c>
@@ -5133,15 +5133,15 @@
         <v>108</v>
       </c>
       <c r="I36" s="31"/>
-      <c r="J36" s="26"/>
+      <c r="J36" s="25"/>
     </row>
     <row r="37" spans="1:10" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="19"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="16"/>
       <c r="G37" s="10" t="s">
         <v>109</v>
       </c>
@@ -5149,25 +5149,25 @@
         <v>118</v>
       </c>
       <c r="I37" s="31"/>
-      <c r="J37" s="26"/>
+      <c r="J37" s="25"/>
     </row>
     <row r="38" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="19" t="s">
+      <c r="C38" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="16" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="3" t="s">
@@ -5179,17 +5179,17 @@
       <c r="I38" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="J38" s="26" t="s">
+      <c r="J38" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="19"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="16"/>
       <c r="G39" s="10" t="s">
         <v>115</v>
       </c>
@@ -5197,15 +5197,15 @@
         <v>108</v>
       </c>
       <c r="I39" s="31"/>
-      <c r="J39" s="26"/>
+      <c r="J39" s="25"/>
     </row>
     <row r="40" spans="1:10" ht="316.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="19"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="16"/>
       <c r="G40" s="10" t="s">
         <v>114</v>
       </c>
@@ -5213,25 +5213,25 @@
         <v>117</v>
       </c>
       <c r="I40" s="31"/>
-      <c r="J40" s="26"/>
+      <c r="J40" s="25"/>
     </row>
     <row r="41" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="16" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="3" t="s">
@@ -5248,12 +5248,12 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="19"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="16"/>
       <c r="G42" s="10" t="s">
         <v>116</v>
       </c>
@@ -5264,12 +5264,12 @@
       <c r="J42" s="31"/>
     </row>
     <row r="43" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="19"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="16"/>
       <c r="G43" s="6" t="s">
         <v>122</v>
       </c>
@@ -5280,12 +5280,12 @@
       <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="19"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="16"/>
       <c r="G44" s="6" t="s">
         <v>124</v>
       </c>
@@ -5296,12 +5296,12 @@
       <c r="J44" s="31"/>
     </row>
     <row r="45" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="19"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="16"/>
       <c r="G45" s="6" t="s">
         <v>127</v>
       </c>
@@ -5312,12 +5312,12 @@
       <c r="J45" s="31"/>
     </row>
     <row r="46" spans="1:10" ht="64.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="19"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="16"/>
       <c r="G46" s="6" t="s">
         <v>128</v>
       </c>
@@ -5328,12 +5328,12 @@
       <c r="J46" s="31"/>
     </row>
     <row r="47" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="19"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="16"/>
       <c r="G47" s="6" t="s">
         <v>129</v>
       </c>
@@ -5344,12 +5344,12 @@
       <c r="J47" s="31"/>
     </row>
     <row r="48" spans="1:10" ht="172.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="19"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="16"/>
       <c r="G48" s="6" t="s">
         <v>130</v>
       </c>
@@ -5360,22 +5360,22 @@
       <c r="J48" s="31"/>
     </row>
     <row r="49" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="E49" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="F49" s="22" t="s">
         <v>146</v>
       </c>
       <c r="G49" s="6" t="s">
@@ -5384,7 +5384,7 @@
       <c r="H49" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I49" s="26" t="s">
+      <c r="I49" s="25" t="s">
         <v>178</v>
       </c>
       <c r="J49" s="31" t="s">
@@ -5392,12 +5392,12 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="16"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="22"/>
       <c r="G50" s="10" t="s">
         <v>115</v>
       </c>
@@ -5408,12 +5408,12 @@
       <c r="J50" s="31"/>
     </row>
     <row r="51" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="16"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="22"/>
       <c r="G51" s="6" t="s">
         <v>148</v>
       </c>
@@ -5424,12 +5424,12 @@
       <c r="J51" s="31"/>
     </row>
     <row r="52" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="16"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="22"/>
       <c r="G52" s="6" t="s">
         <v>149</v>
       </c>
@@ -5440,12 +5440,12 @@
       <c r="J52" s="31"/>
     </row>
     <row r="53" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="16"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="22"/>
       <c r="G53" s="6" t="s">
         <v>151</v>
       </c>
@@ -5458,6 +5458,110 @@
   </sheetData>
   <autoFilter ref="A2:J53" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="128">
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
     <mergeCell ref="I49:I53"/>
     <mergeCell ref="J49:J53"/>
     <mergeCell ref="A49:A53"/>
@@ -5482,110 +5586,6 @@
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="E38:E40"/>
     <mergeCell ref="F38:F40"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J3 J8 J13 J35 J21 J19 J27 J29 J31 J33 J15 J17 J24 J38" xr:uid="{378EC834-2495-4C87-9063-998295AC2CCD}">
@@ -5601,8 +5601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F752393-6FE1-46B5-B3E1-E3FAD35D9321}">
   <dimension ref="B1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5753,8 +5753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34949138-B9AB-459D-9A34-882683B0A189}">
   <dimension ref="A2:J8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5807,19 +5807,19 @@
       <c r="A3" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>166</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -5829,70 +5829,70 @@
       <c r="I3" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="408.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="29"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="28"/>
       <c r="G4" s="3" t="s">
         <v>172</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="27"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:10" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="21" t="s">
         <v>166</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="322.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="6" t="s">
         <v>171</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="27"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
@@ -5902,6 +5902,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="A5:A6"/>
@@ -5910,14 +5918,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J3 J5" xr:uid="{B09645B3-BEDB-4784-AC62-91DB0C8E5FC9}">
